--- a/EJERCICIOS/EXCEL 2010/05 - CÁLCULOS BÁSICOS/excel_cal_03.xlsx
+++ b/EJERCICIOS/EXCEL 2010/05 - CÁLCULOS BÁSICOS/excel_cal_03.xlsx
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>Nombre</t>
   </si>
@@ -394,6 +394,9 @@
   <si>
     <t>Cálculo</t>
   </si>
+  <si>
+    <t>SOLUCIÓN</t>
+  </si>
 </sst>
 </file>
 
@@ -404,7 +407,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -443,6 +446,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -464,13 +474,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,6 +826,51 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>503464</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6320518" y="557894"/>
+          <a:ext cx="2809875" cy="3517994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -840,8 +896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="625928" y="2660196"/>
-          <a:ext cx="4109357" cy="1612447"/>
+          <a:off x="625928" y="2728232"/>
+          <a:ext cx="4109357" cy="1612446"/>
           <a:chOff x="625928" y="2660196"/>
           <a:chExt cx="4109357" cy="1612447"/>
         </a:xfrm>
@@ -942,6 +998,51 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190191</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6374947" y="551088"/>
+          <a:ext cx="2476190" cy="2847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1816,10 +1917,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A2:F20"/>
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1831,7 +1932,7 @@
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1850,8 +1951,11 @@
       <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1865,7 +1969,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1879,7 +1983,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1893,7 +1997,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>25</v>
       </c>
@@ -1907,7 +2011,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -1921,7 +2025,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1935,7 +2039,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -1949,7 +2053,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45</v>
       </c>
@@ -1963,7 +2067,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1977,7 +2081,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>55</v>
       </c>
@@ -1991,7 +2095,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>60</v>
       </c>
@@ -2005,7 +2109,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>65</v>
       </c>
@@ -2019,7 +2123,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>70</v>
       </c>
@@ -2033,7 +2137,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>75</v>
       </c>
@@ -2350,10 +2454,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2363,7 +2467,7 @@
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2383,7 +2487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
@@ -2402,7 +2506,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9</v>
       </c>
@@ -2420,8 +2524,11 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2440,7 +2547,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2459,7 +2566,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2478,7 +2585,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2497,7 +2604,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2516,7 +2623,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -2535,7 +2642,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2554,7 +2661,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2573,7 +2680,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2594,10 +2701,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>